--- a/data/TestLocation/input_data/storage_technologies.xlsx
+++ b/data/TestLocation/input_data/storage_technologies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7650BD1-9429-4A1C-BF69-A0B50C91D84B}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDF5269E-8499-477C-9E83-B049E238A4E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7430" yWindow="-16730" windowWidth="20740" windowHeight="10750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -365,88 +365,88 @@
     <t>Clemens Mostert et al. Comparing Electrical Energy Storage Technologies Regarding Their Material and Carbon Footprint, Energies 2018</t>
   </si>
   <si>
-    <t>CostCapST2020</t>
-  </si>
-  <si>
-    <t>CostCapST2025</t>
-  </si>
-  <si>
-    <t>CostCapST2030</t>
-  </si>
-  <si>
-    <t>CostCapST2035</t>
-  </si>
-  <si>
-    <t>CostCapST2040</t>
-  </si>
-  <si>
-    <t>CostCapST2045</t>
-  </si>
-  <si>
-    <t>CostCapST2050</t>
-  </si>
-  <si>
-    <t>CostOperationFixST2020</t>
-  </si>
-  <si>
-    <t>CostOperationFixST2025</t>
-  </si>
-  <si>
-    <t>CostOperationFixST2030</t>
-  </si>
-  <si>
-    <t>CostOperationFixST2035</t>
-  </si>
-  <si>
-    <t>CostOperationFixST2040</t>
-  </si>
-  <si>
-    <t>CostOperationFixST2045</t>
-  </si>
-  <si>
-    <t>CostOperationFixST2050</t>
-  </si>
-  <si>
-    <t>CostOperationVarST2020</t>
-  </si>
-  <si>
-    <t>CostOperationVarST2025</t>
-  </si>
-  <si>
-    <t>CostOperationVarST2030</t>
-  </si>
-  <si>
-    <t>CostOperationVarST2035</t>
-  </si>
-  <si>
-    <t>CostOperationVarST2040</t>
-  </si>
-  <si>
-    <t>CostOperationVarST2045</t>
-  </si>
-  <si>
-    <t>CostOperationVarST2050</t>
-  </si>
-  <si>
-    <t>LifetimeST2020</t>
-  </si>
-  <si>
-    <t>LifetimeST2025</t>
-  </si>
-  <si>
-    <t>LifetimeST2030</t>
-  </si>
-  <si>
-    <t>LifetimeST2035</t>
-  </si>
-  <si>
-    <t>LifetimeST2040</t>
-  </si>
-  <si>
-    <t>LifetimeST2045</t>
-  </si>
-  <si>
-    <t>LifetimeST2050</t>
+    <t>CostCapSTy2020</t>
+  </si>
+  <si>
+    <t>CostCapSTy2025</t>
+  </si>
+  <si>
+    <t>CostCapSTy2030</t>
+  </si>
+  <si>
+    <t>CostCapSTy2035</t>
+  </si>
+  <si>
+    <t>CostCapSTy2040</t>
+  </si>
+  <si>
+    <t>CostCapSTy2045</t>
+  </si>
+  <si>
+    <t>CostCapSTy2050</t>
+  </si>
+  <si>
+    <t>CostOperationFixSTy2020</t>
+  </si>
+  <si>
+    <t>CostOperationFixSTy2025</t>
+  </si>
+  <si>
+    <t>CostOperationFixSTy2030</t>
+  </si>
+  <si>
+    <t>CostOperationFixSTy2035</t>
+  </si>
+  <si>
+    <t>CostOperationFixSTy2040</t>
+  </si>
+  <si>
+    <t>CostOperationFixSTy2045</t>
+  </si>
+  <si>
+    <t>CostOperationFixSTy2050</t>
+  </si>
+  <si>
+    <t>CostOperationVarSTy2020</t>
+  </si>
+  <si>
+    <t>CostOperationVarSTy2025</t>
+  </si>
+  <si>
+    <t>CostOperationVarSTy2030</t>
+  </si>
+  <si>
+    <t>CostOperationVarSTy2035</t>
+  </si>
+  <si>
+    <t>CostOperationVarSTy2040</t>
+  </si>
+  <si>
+    <t>CostOperationVarSTy2045</t>
+  </si>
+  <si>
+    <t>CostOperationVarSTy2050</t>
+  </si>
+  <si>
+    <t>LifetimeSTy2020</t>
+  </si>
+  <si>
+    <t>LifetimeSTy2025</t>
+  </si>
+  <si>
+    <t>LifetimeSTy2030</t>
+  </si>
+  <si>
+    <t>LifetimeSTy2035</t>
+  </si>
+  <si>
+    <t>LifetimeSTy2040</t>
+  </si>
+  <si>
+    <t>LifetimeSTy2045</t>
+  </si>
+  <si>
+    <t>LifetimeSTy2050</t>
   </si>
 </sst>
 </file>
@@ -455,8 +455,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -593,13 +593,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -894,14 +894,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="35" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/data/TestLocation/input_data/storage_technologies.xlsx
+++ b/data/TestLocation/input_data/storage_technologies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDF5269E-8499-477C-9E83-B049E238A4E5}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B174458F-64FA-49B1-B3B9-C296EE37558F}"/>
   <bookViews>
-    <workbookView xWindow="-7430" yWindow="-16730" windowWidth="20740" windowHeight="10750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9110" yWindow="-17090" windowWidth="24040" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -894,9 +894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,124 +925,124 @@
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="C1" s="10" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="N1" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="O1" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC1" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD1" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE1" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF1" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG1" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH1" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI1" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ1" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK1" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL1" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM1" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN1" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP1" s="17" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1050,41 +1050,44 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
         <v>0.01</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>50000</v>
       </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="I2">
         <v>5.4</v>
       </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
         <v>20</v>
+      </c>
+      <c r="N2">
+        <v>7.7</v>
       </c>
       <c r="O2">
         <v>7.7</v>
@@ -1105,7 +1108,7 @@
         <v>7.7</v>
       </c>
       <c r="U2">
-        <v>7.7</v>
+        <v>1.335</v>
       </c>
       <c r="V2">
         <v>1.335</v>
@@ -1125,8 +1128,8 @@
       <c r="AA2">
         <v>1.335</v>
       </c>
-      <c r="AB2">
-        <v>1.335</v>
+      <c r="AB2" s="16">
+        <v>0</v>
       </c>
       <c r="AC2" s="16">
         <v>0</v>
@@ -1134,7 +1137,7 @@
       <c r="AD2" s="16">
         <v>0</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="AE2" s="2">
         <v>0</v>
       </c>
       <c r="AF2" s="2">
@@ -1146,8 +1149,8 @@
       <c r="AH2" s="2">
         <v>0</v>
       </c>
-      <c r="AI2" s="2">
-        <v>0</v>
+      <c r="AI2" s="4">
+        <v>50</v>
       </c>
       <c r="AJ2" s="4">
         <v>50</v>
@@ -1155,7 +1158,7 @@
       <c r="AK2" s="4">
         <v>50</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2">
         <v>50</v>
       </c>
       <c r="AM2">
@@ -1165,9 +1168,6 @@
         <v>50</v>
       </c>
       <c r="AO2">
-        <v>50</v>
-      </c>
-      <c r="AP2">
         <v>50</v>
       </c>
     </row>
@@ -1175,91 +1175,94 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
         <v>0.02</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>3500</v>
       </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
         <v>11.41</v>
       </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
         <v>6</v>
       </c>
+      <c r="N3" s="6">
+        <v>231.69200000000001</v>
+      </c>
       <c r="O3" s="6">
-        <v>231.69200000000001</v>
-      </c>
-      <c r="P3" s="6">
         <v>150.46199999999999</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="P3" s="15">
         <v>108</v>
       </c>
+      <c r="Q3">
+        <v>86.769000000000005</v>
+      </c>
       <c r="R3">
-        <v>86.769000000000005</v>
+        <v>73.846000000000004</v>
       </c>
       <c r="S3">
-        <v>73.846000000000004</v>
-      </c>
-      <c r="T3">
         <v>65.537999999999997</v>
       </c>
-      <c r="U3" s="2">
+      <c r="T3" s="2">
         <v>60</v>
       </c>
+      <c r="U3" s="6">
+        <v>3.9</v>
+      </c>
       <c r="V3" s="6">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="W3" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="X3" s="6">
         <v>2.7</v>
       </c>
+      <c r="X3">
+        <v>2.5</v>
+      </c>
       <c r="Y3">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Z3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AA3">
         <v>2.1</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AA3" s="2">
         <v>2</v>
       </c>
+      <c r="AB3" s="15">
+        <v>0</v>
+      </c>
       <c r="AC3" s="15">
         <v>0</v>
       </c>
       <c r="AD3" s="15">
         <v>0</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AE3" s="2">
         <v>0</v>
       </c>
       <c r="AF3" s="2">
@@ -1271,8 +1274,8 @@
       <c r="AH3" s="2">
         <v>0</v>
       </c>
-      <c r="AI3" s="2">
-        <v>0</v>
+      <c r="AI3" s="6">
+        <v>20</v>
       </c>
       <c r="AJ3" s="6">
         <v>20</v>
@@ -1280,7 +1283,7 @@
       <c r="AK3" s="6">
         <v>20</v>
       </c>
-      <c r="AL3" s="6">
+      <c r="AL3">
         <v>20</v>
       </c>
       <c r="AM3">
@@ -1290,9 +1293,6 @@
         <v>20</v>
       </c>
       <c r="AO3">
-        <v>20</v>
-      </c>
-      <c r="AP3">
         <v>20</v>
       </c>
     </row>
@@ -1300,83 +1300,86 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
       <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
         <v>0.01</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <v>20000</v>
       </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="I4">
         <v>46.56</v>
       </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
         <v>10000</v>
       </c>
+      <c r="N4">
+        <v>0.38600000000000001</v>
+      </c>
       <c r="O4">
-        <v>0.38600000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="P4">
-        <v>0.38</v>
+        <v>0.374</v>
       </c>
       <c r="Q4">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="R4">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="S4">
-        <v>0.37</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="T4">
-        <v>0.36849999999999999</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="U4">
-        <v>0.36699999999999999</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="V4">
-        <v>1.5440000000000001E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="W4">
-        <v>1.52E-2</v>
+        <v>1.4960000000000001E-2</v>
       </c>
       <c r="X4">
-        <v>1.4960000000000001E-2</v>
+        <v>1.4880000000000001E-2</v>
       </c>
       <c r="Y4">
-        <v>1.4880000000000001E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="Z4">
-        <v>1.4800000000000001E-2</v>
+        <v>1.474E-2</v>
       </c>
       <c r="AA4">
-        <v>1.474E-2</v>
+        <v>1.468E-2</v>
       </c>
       <c r="AB4">
-        <v>1.468E-2</v>
+        <v>0.2</v>
       </c>
       <c r="AC4">
         <v>0.2</v>
@@ -1396,8 +1399,8 @@
       <c r="AH4">
         <v>0.2</v>
       </c>
-      <c r="AI4">
-        <v>0.2</v>
+      <c r="AI4" s="5">
+        <v>30</v>
       </c>
       <c r="AJ4" s="5">
         <v>30</v>
@@ -1415,9 +1418,6 @@
         <v>30</v>
       </c>
       <c r="AO4" s="5">
-        <v>30</v>
-      </c>
-      <c r="AP4" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1425,41 +1425,44 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
       <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
         <v>0.01</v>
       </c>
-      <c r="G5">
+      <c r="F5">
         <v>20000</v>
       </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5">
         <v>92.09</v>
       </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
         <v>10000</v>
+      </c>
+      <c r="N5">
+        <v>0.05</v>
       </c>
       <c r="O5">
         <v>0.05</v>
@@ -1480,7 +1483,7 @@
         <v>0.05</v>
       </c>
       <c r="U5">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="V5">
         <v>1E-3</v>
@@ -1500,8 +1503,8 @@
       <c r="AA5">
         <v>1E-3</v>
       </c>
-      <c r="AB5">
-        <v>1E-3</v>
+      <c r="AB5" s="2">
+        <v>0</v>
       </c>
       <c r="AC5" s="2">
         <v>0</v>
@@ -1521,8 +1524,8 @@
       <c r="AH5" s="2">
         <v>0</v>
       </c>
-      <c r="AI5" s="2">
-        <v>0</v>
+      <c r="AI5" s="5">
+        <v>50</v>
       </c>
       <c r="AJ5" s="5">
         <v>50</v>
@@ -1540,9 +1543,6 @@
         <v>50</v>
       </c>
       <c r="AO5" s="5">
-        <v>50</v>
-      </c>
-      <c r="AP5" s="5">
         <v>50</v>
       </c>
     </row>
@@ -1550,62 +1550,65 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6">
         <v>10000</v>
       </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
         <v>53.08</v>
       </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2">
         <v>10000</v>
       </c>
+      <c r="N6">
+        <v>310.33330000000001</v>
+      </c>
       <c r="O6">
-        <v>310.33330000000001</v>
+        <v>215.33330000000001</v>
       </c>
       <c r="P6">
-        <v>215.33330000000001</v>
+        <v>164.66669999999999</v>
       </c>
       <c r="Q6">
-        <v>164.66669999999999</v>
+        <v>133</v>
       </c>
       <c r="R6">
-        <v>133</v>
-      </c>
-      <c r="S6">
         <v>120.33329999999999</v>
       </c>
-      <c r="T6" s="2">
+      <c r="S6" s="2">
         <v>114</v>
       </c>
+      <c r="T6">
+        <v>107.66670000000001</v>
+      </c>
       <c r="U6">
-        <v>107.66670000000001</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="V6">
         <v>8.0000000000000004E-4</v>
@@ -1625,8 +1628,8 @@
       <c r="AA6">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="AB6">
-        <v>8.0000000000000004E-4</v>
+      <c r="AB6" s="2">
+        <v>0</v>
       </c>
       <c r="AC6" s="2">
         <v>0</v>
@@ -1646,8 +1649,8 @@
       <c r="AH6" s="2">
         <v>0</v>
       </c>
-      <c r="AI6" s="2">
-        <v>0</v>
+      <c r="AI6" s="5">
+        <v>13</v>
       </c>
       <c r="AJ6" s="5">
         <v>13</v>
@@ -1665,9 +1668,6 @@
         <v>13</v>
       </c>
       <c r="AO6" s="5">
-        <v>13</v>
-      </c>
-      <c r="AP6" s="5">
         <v>13</v>
       </c>
     </row>
@@ -1675,84 +1675,87 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
         <v>1000000</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>1.8387199999999999</v>
       </c>
+      <c r="I7">
+        <v>0.70720000000000005</v>
+      </c>
       <c r="J7">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="K7">
         <v>0.28288000000000002</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>2.5</v>
       </c>
-      <c r="N7" s="2">
+      <c r="M7" s="2">
         <v>10000</v>
       </c>
+      <c r="N7">
+        <v>41.8</v>
+      </c>
       <c r="O7">
-        <v>41.8</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="P7">
-        <v>32.700000000000003</v>
+        <v>26.8</v>
       </c>
       <c r="Q7">
-        <v>26.8</v>
-      </c>
-      <c r="R7">
         <v>23.3</v>
       </c>
-      <c r="S7" s="2">
+      <c r="R7" s="2">
         <v>21</v>
       </c>
+      <c r="S7">
+        <v>19.3</v>
+      </c>
       <c r="T7">
-        <v>19.3</v>
+        <v>17.5</v>
       </c>
       <c r="U7">
-        <v>17.5</v>
+        <v>0.63</v>
       </c>
       <c r="V7">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="W7">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="X7">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="Y7">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="Z7">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AA7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AB7">
         <v>0.26</v>
       </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
       <c r="AC7" s="2">
         <v>0</v>
       </c>
@@ -1771,8 +1774,8 @@
       <c r="AH7" s="2">
         <v>0</v>
       </c>
-      <c r="AI7" s="2">
-        <v>0</v>
+      <c r="AI7" s="5">
+        <v>25</v>
       </c>
       <c r="AJ7" s="5">
         <v>25</v>
@@ -1781,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="AL7" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AM7" s="5">
         <v>30</v>
@@ -1790,9 +1793,6 @@
         <v>30</v>
       </c>
       <c r="AO7" s="5">
-        <v>30</v>
-      </c>
-      <c r="AP7" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1800,19 +1800,22 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
         <v>33</v>
       </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
@@ -1828,15 +1831,15 @@
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M8" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="N8" s="2">
         <v>10000</v>
       </c>
-      <c r="O8" s="12">
+      <c r="N8" s="12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="O8">
         <v>0.14199999999999999</v>
       </c>
       <c r="P8">
@@ -1854,10 +1857,10 @@
       <c r="T8">
         <v>0.14199999999999999</v>
       </c>
-      <c r="U8">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="V8" s="12">
+      <c r="U8" s="12">
+        <v>9.9399999999999992E-3</v>
+      </c>
+      <c r="V8">
         <v>9.9399999999999992E-3</v>
       </c>
       <c r="W8">
@@ -1875,8 +1878,8 @@
       <c r="AA8">
         <v>9.9399999999999992E-3</v>
       </c>
-      <c r="AB8">
-        <v>9.9399999999999992E-3</v>
+      <c r="AB8" s="2">
+        <v>0</v>
       </c>
       <c r="AC8" s="2">
         <v>0</v>
@@ -1896,8 +1899,8 @@
       <c r="AH8" s="2">
         <v>0</v>
       </c>
-      <c r="AI8" s="2">
-        <v>0</v>
+      <c r="AI8" s="12">
+        <v>30</v>
       </c>
       <c r="AJ8" s="12">
         <v>30</v>
@@ -1915,9 +1918,6 @@
         <v>30</v>
       </c>
       <c r="AO8" s="12">
-        <v>30</v>
-      </c>
-      <c r="AP8" s="12">
         <v>30</v>
       </c>
     </row>
@@ -1931,20 +1931,23 @@
       <c r="AP9" s="5"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>21</v>
@@ -1953,21 +1956,18 @@
         <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AC10" s="7" t="s">
+      <c r="AB10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AJ10" s="1" t="s">
+      <c r="AI10" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/data/TestLocation/input_data/storage_technologies.xlsx
+++ b/data/TestLocation/input_data/storage_technologies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B174458F-64FA-49B1-B3B9-C296EE37558F}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DE8A69C-32D5-4772-9052-F98DC5A67CF9}"/>
   <bookViews>
-    <workbookView xWindow="-9110" yWindow="-17090" windowWidth="24040" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t>(power equi: MWh)</t>
   </si>
@@ -447,6 +447,30 @@
   </si>
   <si>
     <t>LifetimeSTy2050</t>
+  </si>
+  <si>
+    <t>maxVolumePotSTb1</t>
+  </si>
+  <si>
+    <t>maxVolumePotSTb2</t>
+  </si>
+  <si>
+    <t>maxVolumePotSTb3</t>
+  </si>
+  <si>
+    <t>maxVolumePotSTb4</t>
+  </si>
+  <si>
+    <t>minVolumePotSTb1</t>
+  </si>
+  <si>
+    <t>minVolumePotSTb2</t>
+  </si>
+  <si>
+    <t>minVolumePotSTb3</t>
+  </si>
+  <si>
+    <t>minVolumePotSTb4</t>
   </si>
 </sst>
 </file>
@@ -892,11 +916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="AU16" sqref="AU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,10 +942,12 @@
     <col min="15" max="21" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="22" max="28" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="29" max="35" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="45" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -1045,8 +1071,32 @@
       <c r="AO1" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1170,8 +1220,32 @@
       <c r="AO2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP2">
+        <v>2123749.4</v>
+      </c>
+      <c r="AQ2">
+        <v>1951920.27</v>
+      </c>
+      <c r="AR2">
+        <v>1354741.65</v>
+      </c>
+      <c r="AS2">
+        <v>1750162.93</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1295,8 +1369,32 @@
       <c r="AO3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP3" s="2">
+        <v>40000</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>40000</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>40000</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>40000</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1420,8 +1518,32 @@
       <c r="AO4" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP4" s="2">
+        <v>43200000</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>43200000</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>43200000</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>43200000</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1545,8 +1667,32 @@
       <c r="AO5" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1670,8 +1816,32 @@
       <c r="AO6" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1795,8 +1965,32 @@
       <c r="AO7" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1920,8 +2114,32 @@
       <c r="AO8" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP8" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
@@ -1930,7 +2148,7 @@
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +2189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1989,7 +2207,7 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2007,7 +2225,7 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2025,7 +2243,7 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2049,7 +2267,7 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
